--- a/Lab3/data.xlsx
+++ b/Lab3/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1/sqrt(U)(V^-1)</t>
+          <t>1/sqrt(U)(V^-1/2)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -467,21 +467,6 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>lambda_t(pm)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lambda1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lambda2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lambda_t</t>
         </is>
       </c>
     </row>
@@ -507,15 +492,6 @@
       <c r="G2" t="n">
         <v>22.38946161506075</v>
       </c>
-      <c r="H2" t="n">
-        <v>23.66666666666666</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22.77777777777778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>22.38946161506075</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,15 +515,6 @@
       <c r="G3" t="n">
         <v>20.72861358630926</v>
       </c>
-      <c r="H3" t="n">
-        <v>22.08888888888889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21.86666666666667</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.72861358630926</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -571,15 +538,6 @@
       <c r="G4" t="n">
         <v>19.38984253569918</v>
       </c>
-      <c r="H4" t="n">
-        <v>20.51111111111111</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.95555555555555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19.38984253569918</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -603,15 +561,6 @@
       <c r="G5" t="n">
         <v>18.28091885750967</v>
       </c>
-      <c r="H5" t="n">
-        <v>18.93333333333333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.04444444444444</v>
-      </c>
-      <c r="J5" t="n">
-        <v>18.28091885750967</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -633,15 +582,6 @@
         <v>18.22222222222222</v>
       </c>
       <c r="G6" t="n">
-        <v>17.3428023931361</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17.35555555555555</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.22222222222222</v>
-      </c>
-      <c r="J6" t="n">
         <v>17.3428023931361</v>
       </c>
     </row>

--- a/Lab3/data.xlsx
+++ b/Lab3/data.xlsx
@@ -501,16 +501,16 @@
         <v>0.01690308509457033</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="D3" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="E3" t="n">
-        <v>22.08888888888889</v>
+        <v>21.69444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>21.86666666666667</v>
+        <v>21.18333333333333</v>
       </c>
       <c r="G3" t="n">
         <v>20.72861358630926</v>
@@ -527,13 +527,13 @@
         <v>2.6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="E4" t="n">
         <v>20.51111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>20.95555555555555</v>
+        <v>19.81666666666666</v>
       </c>
       <c r="G4" t="n">
         <v>19.38984253569918</v>
@@ -547,16 +547,16 @@
         <v>0.0149071198499986</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="E5" t="n">
-        <v>18.93333333333333</v>
+        <v>19.32777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>20.04444444444444</v>
+        <v>18.67777777777777</v>
       </c>
       <c r="G5" t="n">
         <v>18.28091885750967</v>
@@ -570,16 +570,16 @@
         <v>0.01414213562373095</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E6" t="n">
-        <v>17.35555555555555</v>
+        <v>18.14444444444445</v>
       </c>
       <c r="F6" t="n">
-        <v>18.22222222222222</v>
+        <v>17.76666666666667</v>
       </c>
       <c r="G6" t="n">
         <v>17.3428023931361</v>
